--- a/Hardware/Scale/production/BOM1.xlsx
+++ b/Hardware/Scale/production/BOM1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/891171bab38366e0/Stuff/Projekter/DosingESP32/Hardware/scale/Assembly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/891171bab38366e0/Dokumenter/GitHub/BeeSMART/Hardware/Scale/production/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="374" documentId="13_ncr:1_{55000A20-6122-4704-9F23-9D02A4D9B46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77B7A8B-75CD-4FAC-AC05-5DB2F75F1263}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{F2DF9297-AA5E-464F-BE05-B9D32E6A1A51}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15285" xr2:uid="{F2DF9297-AA5E-464F-BE05-B9D32E6A1A51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,10 +281,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,7 +583,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
